--- a/biology/Zoologie/Goéland_pontique/Goéland_pontique.xlsx
+++ b/biology/Zoologie/Goéland_pontique/Goéland_pontique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_pontique</t>
+          <t>Goéland_pontique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Larus cachinnans
 Le Goéland pontique (Larus cachinnans) est une espèce d'oiseaux de la famille des Laridae, longtemps considérée comme conspécifique du Goéland leucophée (Larus michahellis).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_pontique</t>
+          <t>Goéland_pontique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Goéland pontique mesure de 56 à 68 cm de longueur.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_pontique</t>
+          <t>Goéland_pontique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fin du XXe siècle, cet oiseau était connu comme reproducteur de la mer Noire à la mer Caspienne et dans l'est du Kazakhstan et comme hivernant dans le sud et le sud-ouest de l'Asie, au Moyen-Orient et dans le nord-est de l'Afrique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fin du XXe siècle, cet oiseau était connu comme reproducteur de la mer Noire à la mer Caspienne et dans l'est du Kazakhstan et comme hivernant dans le sud et le sud-ouest de l'Asie, au Moyen-Orient et dans le nord-est de l'Afrique.
 Depuis quelques années, il niche aussi en Europe centrale (Pologne, Lituanie...) et hiverne en Europe occidentale (Benelux, nord de la France).
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_pontique</t>
+          <t>Goéland_pontique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Goéland pontique niche dans les dunes, les îles, les lacs des steppes et au bord des cours d'eau.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Go%C3%A9land_pontique</t>
+          <t>Goéland_pontique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des trois sous-espèces suivantes :
 Larus cachinnans barabensis  Johansen,H 1960
